--- a/Train&Test sets/nLND_test.xlsx
+++ b/Train&Test sets/nLND_test.xlsx
@@ -562,61 +562,61 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="B2" t="n">
-        <v>12.133333</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>2.57</v>
       </c>
       <c r="I2" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="J2" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>4.84</v>
+        <v>16.44</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>0.849</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O2" t="n">
-        <v>56.2</v>
+        <v>8.1</v>
       </c>
       <c r="P2" t="n">
-        <v>34.9</v>
+        <v>30.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.3</v>
+        <v>14.9</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -663,34 +663,34 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="I3" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>0.97</v>
       </c>
       <c r="K3" t="n">
-        <v>2.27</v>
+        <v>1.01</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>8.1</v>
       </c>
       <c r="O3" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="P3" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.5</v>
+        <v>10.8</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
@@ -702,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -722,55 +722,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="B4" t="n">
-        <v>13.533334</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>3.63</v>
       </c>
       <c r="J4" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="K4" t="n">
-        <v>199.5</v>
+        <v>2.51</v>
       </c>
       <c r="L4" t="n">
-        <v>4.86</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>48</v>
+        <v>12.2</v>
       </c>
       <c r="O4" t="n">
-        <v>22.05</v>
+        <v>7.3</v>
       </c>
       <c r="P4" t="n">
-        <v>38.46</v>
+        <v>38.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.9</v>
+        <v>10.7</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -802,16 +802,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="B5" t="n">
-        <v>13.166667</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>70</v>
@@ -820,43 +820,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6.23</v>
+        <v>5.39</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>7.52</v>
       </c>
       <c r="J5" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>43.7</v>
+        <v>11.5</v>
       </c>
       <c r="P5" t="n">
-        <v>35.5</v>
+        <v>39.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -882,55 +882,55 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>214</v>
+        <v>371</v>
       </c>
       <c r="B6" t="n">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.44</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.29</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.52</v>
+        <v>0.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>60</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>39.9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>13.4</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>42.1</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -962,55 +962,55 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>71.90000000000001</v>
+        <v>9.440789000000001</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.62</v>
+        <v>5.74</v>
       </c>
       <c r="I7" t="n">
-        <v>3.49</v>
+        <v>55.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.91</v>
+        <v>36.8</v>
       </c>
       <c r="K7" t="n">
-        <v>114.47</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.92</v>
+        <v>3.3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O7" t="n">
-        <v>10.4</v>
+        <v>15.3</v>
       </c>
       <c r="P7" t="n">
-        <v>47</v>
+        <v>44.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1042,79 +1042,79 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.42</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.79</v>
+        <v>4.29</v>
       </c>
       <c r="L8" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O8" t="n">
-        <v>9.9</v>
+        <v>33.4</v>
       </c>
       <c r="P8" t="n">
-        <v>43.1</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.1</v>
+        <v>13.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1122,61 +1122,61 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7.11</v>
+        <v>4.24</v>
       </c>
       <c r="I9" t="n">
-        <v>4.55</v>
+        <v>6.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.58</v>
+        <v>0.86</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>148.5</v>
+        <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>16.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>38.6</v>
+        <v>36.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1185,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="B10" t="n">
-        <v>9.440789000000001</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1214,40 +1214,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.74</v>
+        <v>4.68</v>
       </c>
       <c r="I10" t="n">
-        <v>55.3</v>
+        <v>2.51</v>
       </c>
       <c r="J10" t="n">
-        <v>36.8</v>
+        <v>0.91</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>7.81</v>
       </c>
       <c r="L10" t="n">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>15.3</v>
+        <v>12.3</v>
       </c>
       <c r="P10" t="n">
-        <v>44.1</v>
+        <v>40.8</v>
       </c>
       <c r="Q10" t="n">
         <v>11.7</v>
@@ -1256,22 +1256,22 @@
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>2</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1294,49 +1294,49 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.37</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>1.69</v>
+        <v>6.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.918</v>
+        <v>3.06</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>16.05</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>13</v>
       </c>
       <c r="P11" t="n">
-        <v>40.5</v>
+        <v>35.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>2</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="B12" t="n">
-        <v>45.5</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1374,43 +1374,43 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K12" t="n">
         <v>6.02</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.17</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.13</v>
+        <v>2.53</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="O12" t="n">
-        <v>8.9</v>
+        <v>14.8</v>
       </c>
       <c r="P12" t="n">
-        <v>40.2</v>
+        <v>41.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.3</v>
+        <v>11</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1442,55 +1442,55 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.46</v>
+        <v>4.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.12</v>
+        <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.71</v>
+        <v>8.68</v>
       </c>
       <c r="L13" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>43.6</v>
+        <v>45.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.1</v>
+        <v>13.3</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1522,61 +1522,61 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>7.23</v>
+        <v>6.53</v>
       </c>
       <c r="I14" t="n">
-        <v>4.87</v>
+        <v>4.07</v>
       </c>
       <c r="J14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="K14" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="L14" t="n">
-        <v>4.95</v>
+        <v>4.54</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="O14" t="n">
-        <v>10.5</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>40.5</v>
+        <v>44.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.4</v>
+        <v>12.4</v>
       </c>
       <c r="R14" t="n">
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
